--- a/Jogos_do_Dia/2024-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.84</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -830,13 +830,13 @@
         <v>3.86</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="M3" t="n">
         <v>1.38</v>
@@ -857,10 +857,10 @@
         <v>3.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="T3" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
         <v>1.65</v>
@@ -969,13 +969,13 @@
         <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>5.17</v>
       </c>
       <c r="L4" t="n">
-        <v>5.8</v>
+        <v>6.71</v>
       </c>
       <c r="M4" t="n">
         <v>1.22</v>
@@ -996,10 +996,10 @@
         <v>6.09</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="T4" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="U4" t="n">
         <v>1.58</v>
@@ -1108,13 +1108,13 @@
         <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>6.02</v>
       </c>
       <c r="L5" t="n">
-        <v>9.5</v>
+        <v>9.92</v>
       </c>
       <c r="M5" t="n">
         <v>1.25</v>
@@ -1135,10 +1135,10 @@
         <v>5.61</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="T5" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1165,10 +1165,10 @@
         <v>1.67</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AE5" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia/2024-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.84</v>
       </c>
       <c r="J2" t="n">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -739,7 +739,7 @@
         <v>1.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
@@ -830,13 +830,13 @@
         <v>3.86</v>
       </c>
       <c r="J3" t="n">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.82</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.38</v>
@@ -857,10 +857,10 @@
         <v>3.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
         <v>1.65</v>
@@ -878,10 +878,10 @@
         <v>1.68</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AB3" t="n">
         <v>1.23</v>
@@ -969,13 +969,13 @@
         <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.17</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>6.71</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.22</v>
@@ -1017,10 +1017,10 @@
         <v>2.85</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AB4" t="n">
         <v>1.42</v>
@@ -1108,13 +1108,13 @@
         <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="K5" t="n">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>9.92</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.25</v>
@@ -1156,10 +1156,10 @@
         <v>3.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AB5" t="n">
         <v>1.67</v>
